--- a/documents/Published/Rotating Chart/RotatingChartByMAQSoftwareChecklist.xlsx
+++ b/documents/Published/Rotating Chart/RotatingChartByMAQSoftwareChecklist.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18518"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nisha\Desktop\final Power BI code\Rotating chart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\documents\Published\Rotating Chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4237970D-3DB8-42E8-A258-BBF3A014ECF4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13280" xr2:uid="{67278F39-5C2F-4C21-84D9-7B8CB41EFB1B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13275" activeTab="1" xr2:uid="{67278F39-5C2F-4C21-84D9-7B8CB41EFB1B}"/>
   </bookViews>
   <sheets>
     <sheet name="BVT" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
   <si>
     <t>S no</t>
   </si>
@@ -267,6 +268,9 @@
   <si>
     <t>1. Color of title will be set to 'Purple'
 2. Text size of title will be resized to '15'</t>
+  </si>
+  <si>
+    <t>Is report tooltip working properly?</t>
   </si>
 </sst>
 </file>
@@ -319,7 +323,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -379,11 +383,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA3A3A3"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA3A3A3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA3A3A3"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA3A3A3"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -433,6 +482,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -751,17 +809,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DFE4D4-682B-4136-8526-C2C15BB103EA}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.81640625" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
-    <col min="4" max="4" width="40.453125" customWidth="1"/>
-    <col min="5" max="5" width="50.26953125" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" customWidth="1"/>
+    <col min="5" max="5" width="50.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -778,7 +836,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -795,7 +853,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -812,7 +870,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -829,7 +887,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -846,7 +904,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -870,18 +928,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FAF7FE4-205C-4ABB-828C-43920A88C858}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="75.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -892,7 +950,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -903,7 +961,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -914,7 +972,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -925,7 +983,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -936,7 +994,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -947,7 +1005,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -958,7 +1016,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -969,7 +1027,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -980,7 +1038,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -991,7 +1049,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1002,7 +1060,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1013,7 +1071,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1024,7 +1082,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1035,7 +1093,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1046,7 +1104,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1057,7 +1115,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -1068,21 +1126,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="17"/>
     </row>
-    <row r="19" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
       <c r="B19" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="18"/>
     </row>
-    <row r="20" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -1093,7 +1151,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>18</v>
       </c>
@@ -1104,33 +1162,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="17"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="17"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="8"/>
       <c r="C24" s="17"/>
     </row>
-    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="18"/>
     </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>19</v>
       </c>
@@ -1141,7 +1199,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>20</v>
       </c>
@@ -1150,6 +1208,17 @@
       </c>
       <c r="C27" s="6" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="19">
+        <v>21</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/documents/Published/Rotating Chart/RotatingChartByMAQSoftwareChecklist.xlsx
+++ b/documents/Published/Rotating Chart/RotatingChartByMAQSoftwareChecklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\documents\Published\Rotating Chart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualWork\documents\Published\Rotating Chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4237970D-3DB8-42E8-A258-BBF3A014ECF4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0E99D9-88D6-4AC9-92DA-412A9E59A37F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13275" activeTab="1" xr2:uid="{67278F39-5C2F-4C21-84D9-7B8CB41EFB1B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13275" xr2:uid="{67278F39-5C2F-4C21-84D9-7B8CB41EFB1B}"/>
   </bookViews>
   <sheets>
     <sheet name="BVT" sheetId="1" r:id="rId1"/>
@@ -55,11 +55,6 @@
   </si>
   <si>
     <t>Update delay in rotation of chart</t>
-  </si>
-  <si>
-    <t>1. Go to formatting pane
-2. Go to 'Animation Setting' option
-3. Update 'Delay' to 4</t>
   </si>
   <si>
     <t>Labels</t>
@@ -271,6 +266,12 @@
   </si>
   <si>
     <t>Is report tooltip working properly?</t>
+  </si>
+  <si>
+    <t>1. Go to formatting pane
+2. Go to 'Animation Setting' option
+3. Set toggle to ON.
+4. Update 'Delay' to 4</t>
   </si>
 </sst>
 </file>
@@ -323,7 +324,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -387,36 +388,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FFA3A3A3"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFA3A3A3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFA3A3A3"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFA3A3A3"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -469,6 +440,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -482,15 +460,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -809,7 +778,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DFE4D4-682B-4136-8526-C2C15BB103EA}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -833,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -844,13 +815,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -861,16 +832,16 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -881,10 +852,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -892,16 +863,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -909,20 +880,21 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -930,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FAF7FE4-205C-4ABB-828C-43920A88C858}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,13 +913,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -955,10 +927,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -966,10 +938,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -977,10 +949,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -988,10 +960,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -999,10 +971,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1010,10 +982,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1021,10 +993,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1032,10 +1004,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1043,10 +1015,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1054,10 +1026,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1065,10 +1037,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1076,10 +1048,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1087,10 +1059,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1098,10 +1070,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1109,116 +1081,116 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
-        <v>16</v>
-      </c>
-      <c r="B17" s="10" t="s">
+      <c r="C17" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="11" t="s">
+      <c r="C18" s="20"/>
+    </row>
+    <row r="19" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18"/>
+      <c r="B19" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="17"/>
-    </row>
-    <row r="19" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
-      <c r="B19" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="18"/>
+      <c r="C19" s="21"/>
     </row>
     <row r="20" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
+        <v>18</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
-        <v>18</v>
-      </c>
-      <c r="B21" s="7" t="s">
+      <c r="C21" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="8" t="s">
+      <c r="C22" s="20"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="17"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="20"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="20"/>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="18"/>
+      <c r="B25" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="17"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="17"/>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
-      <c r="B25" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="18"/>
+      <c r="C25" s="21"/>
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>19</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <v>20</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
-        <v>20</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>22</v>
+      <c r="C27" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="19">
+      <c r="A28" s="15">
         <v>21</v>
       </c>
-      <c r="B28" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>17</v>
+      <c r="B28" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
